--- a/IR sensor outputs.xlsx
+++ b/IR sensor outputs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98cbedaba88e321f/Metropolia/Devices/Workspaces/Workspace 1/Zumo4/Zumo01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="AC88CF48CAA6AD3F7806389E7F064D31EF454B06" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{7C2013B2-E4E0-47A7-9D33-34709F1A8F8C}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="AC88CF48CAA6AD3F7806389E7F064D31EF454B06" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{6A8E307A-F26D-4014-9A36-E5FACC7CE5B9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{197858B8-A540-465C-ABDC-2FF25818563B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{197858B8-A540-465C-ABDC-2FF25818563B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>LeftBump</t>
   </si>
@@ -52,6 +53,39 @@
   </si>
   <si>
     <t>MixedSeries</t>
+  </si>
+  <si>
+    <t>First series:</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Second series</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Third series</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Over a curve</t>
+  </si>
+  <si>
+    <t>Fourth series</t>
+  </si>
+  <si>
+    <t>Random</t>
   </si>
 </sst>
 </file>
@@ -406,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932958A4-F64A-4305-9564-56C90EC136CD}">
   <dimension ref="A1:T345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B202" workbookViewId="0">
-      <selection activeCell="G202" sqref="G202"/>
+    <sheetView topLeftCell="B199" workbookViewId="0">
+      <selection activeCell="P200" sqref="P200:S202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13100,4 +13134,255 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03C2029-D67C-49CA-8646-65AC2878C8D2}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>6710.0409356725149</v>
+      </c>
+      <c r="C2">
+        <v>7905.479532163743</v>
+      </c>
+      <c r="D2">
+        <v>7483.666666666667</v>
+      </c>
+      <c r="E2">
+        <v>10553.777777777777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>14240</v>
+      </c>
+      <c r="C3">
+        <v>23999</v>
+      </c>
+      <c r="D3">
+        <v>23999</v>
+      </c>
+      <c r="E3">
+        <v>23999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>5023</v>
+      </c>
+      <c r="C4">
+        <v>3202</v>
+      </c>
+      <c r="D4">
+        <v>326</v>
+      </c>
+      <c r="E4">
+        <v>6898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>5140.174757281553</v>
+      </c>
+      <c r="C7">
+        <v>3235.6796116504856</v>
+      </c>
+      <c r="D7">
+        <v>3388.7766990291261</v>
+      </c>
+      <c r="E7">
+        <v>7227.6407766990287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>5528</v>
+      </c>
+      <c r="C8">
+        <v>3361</v>
+      </c>
+      <c r="D8">
+        <v>3522</v>
+      </c>
+      <c r="E8">
+        <v>7505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>4916</v>
+      </c>
+      <c r="C9">
+        <v>3131</v>
+      </c>
+      <c r="D9">
+        <v>3274</v>
+      </c>
+      <c r="E9">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>22304.62393162393</v>
+      </c>
+      <c r="C12">
+        <v>23304.820512820512</v>
+      </c>
+      <c r="D12">
+        <v>23314.51282051282</v>
+      </c>
+      <c r="E12">
+        <v>23849.598290598289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>23999</v>
+      </c>
+      <c r="C13">
+        <v>23999</v>
+      </c>
+      <c r="D13">
+        <v>23999</v>
+      </c>
+      <c r="E13">
+        <v>23999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>153</v>
+      </c>
+      <c r="C14">
+        <v>4351</v>
+      </c>
+      <c r="D14">
+        <v>4742</v>
+      </c>
+      <c r="E14">
+        <v>11505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>21776.595959595961</v>
+      </c>
+      <c r="C17">
+        <v>17317.313131313131</v>
+      </c>
+      <c r="D17">
+        <v>16516.808080808081</v>
+      </c>
+      <c r="E17">
+        <v>19012.010101010103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>23999</v>
+      </c>
+      <c r="C18">
+        <v>23999</v>
+      </c>
+      <c r="D18">
+        <v>23999</v>
+      </c>
+      <c r="E18">
+        <v>23999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <v>5202</v>
+      </c>
+      <c r="C19">
+        <v>3136</v>
+      </c>
+      <c r="D19">
+        <v>3229</v>
+      </c>
+      <c r="E19">
+        <v>6601</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IR sensor outputs.xlsx
+++ b/IR sensor outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98cbedaba88e321f/Metropolia/Devices/Workspaces/Workspace 1/Zumo4/Zumo01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="AC88CF48CAA6AD3F7806389E7F064D31EF454B06" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{6A8E307A-F26D-4014-9A36-E5FACC7CE5B9}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="AC88CF48CAA6AD3F7806389E7F064D31EF454B06" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{ABA6AD08-DA01-486D-B0E8-7F5E081C8AB1}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{197858B8-A540-465C-ABDC-2FF25818563B}"/>
   </bookViews>
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932958A4-F64A-4305-9564-56C90EC136CD}">
   <dimension ref="A1:T345"/>
   <sheetViews>
-    <sheetView topLeftCell="B199" workbookViewId="0">
-      <selection activeCell="P200" sqref="P200:S202"/>
+    <sheetView topLeftCell="A324" workbookViewId="0">
+      <selection activeCell="A343" sqref="A343:D345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10453,19 +10453,19 @@
         <v>23999</v>
       </c>
       <c r="P200">
-        <f>AVERAGEIF(P2:P199,"&gt;1")</f>
+        <f>AVERAGEIF(P2:P199,"&gt;1000")</f>
         <v>21776.595959595961</v>
       </c>
       <c r="Q200">
-        <f>AVERAGEIF(Q2:Q199,"&gt;1")</f>
+        <f>AVERAGEIF(Q2:Q199,"&gt;1000")</f>
         <v>17317.313131313131</v>
       </c>
       <c r="R200">
-        <f>AVERAGEIF(R2:R199,"&gt;1")</f>
+        <f>AVERAGEIF(R2:R199,"&gt;1000")</f>
         <v>16516.808080808081</v>
       </c>
       <c r="S200">
-        <f>AVERAGEIF(S2:S199,"&gt;1")</f>
+        <f>AVERAGEIF(S2:S199,"&gt;1000")</f>
         <v>19012.010101010103</v>
       </c>
     </row>
@@ -10507,19 +10507,19 @@
         <v>0</v>
       </c>
       <c r="P201">
-        <f>_xlfn.MAXIFS(P2:P199,P2:P199,"&gt;1")</f>
+        <f>_xlfn.MAXIFS(P2:P199,P2:P199,"&gt;1000")</f>
         <v>23999</v>
       </c>
       <c r="Q201">
-        <f>_xlfn.MAXIFS(Q2:Q199,Q2:Q199,"&gt;1")</f>
+        <f>_xlfn.MAXIFS(Q2:Q199,Q2:Q199,"&gt;1000")</f>
         <v>23999</v>
       </c>
       <c r="R201">
-        <f>_xlfn.MAXIFS(R2:R199,R2:R199,"&gt;1")</f>
+        <f>_xlfn.MAXIFS(R2:R199,R2:R199,"&gt;1000")</f>
         <v>23999</v>
       </c>
       <c r="S201">
-        <f>_xlfn.MAXIFS(S2:S199,S2:S199,"&gt;1")</f>
+        <f>_xlfn.MAXIFS(S2:S199,S2:S199,"&gt;1000")</f>
         <v>23999</v>
       </c>
     </row>
@@ -10561,19 +10561,19 @@
         <v>23999</v>
       </c>
       <c r="P202">
-        <f>_xlfn.MINIFS(P2:P199,P2:P199,"&gt;1")</f>
+        <f>_xlfn.MINIFS(P2:P199,P2:P199,"&gt;1000")</f>
         <v>5202</v>
       </c>
       <c r="Q202">
-        <f>_xlfn.MINIFS(Q2:Q199,Q2:Q199,"&gt;1")</f>
+        <f>_xlfn.MINIFS(Q2:Q199,Q2:Q199,"&gt;1000")</f>
         <v>3136</v>
       </c>
       <c r="R202">
-        <f>_xlfn.MINIFS(R2:R199,R2:R199,"&gt;1")</f>
+        <f>_xlfn.MINIFS(R2:R199,R2:R199,"&gt;1000")</f>
         <v>3229</v>
       </c>
       <c r="S202">
-        <f>_xlfn.MINIFS(S2:S199,S2:S199,"&gt;1")</f>
+        <f>_xlfn.MINIFS(S2:S199,S2:S199,"&gt;1000")</f>
         <v>6601</v>
       </c>
     </row>
@@ -11531,20 +11531,20 @@
         <v>1</v>
       </c>
       <c r="K235">
-        <f>AVERAGEIF(K2:K234,"&gt;1")</f>
-        <v>22304.62393162393</v>
+        <f>AVERAGEIF(K2:K234,"&gt;18000")</f>
+        <v>23775.072164948455</v>
       </c>
       <c r="L235">
-        <f>AVERAGEIF(L2:L234,"&gt;1")</f>
-        <v>23304.820512820512</v>
+        <f>AVERAGEIF(L2:L234,"&gt;18000")</f>
+        <v>23811.223214285714</v>
       </c>
       <c r="M235">
-        <f>AVERAGEIF(M2:M234,"&gt;1")</f>
-        <v>23314.51282051282</v>
+        <f>AVERAGEIF(M2:M234,"&gt;18000")</f>
+        <v>23865.639639639641</v>
       </c>
       <c r="N235">
-        <f>AVERAGEIF(N2:N234,"&gt;1")</f>
-        <v>23849.598290598289</v>
+        <f>AVERAGEIF(N2:N234,"&gt;18000")</f>
+        <v>23956.017241379312</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -11561,19 +11561,19 @@
         <v>7468</v>
       </c>
       <c r="K236">
-        <f>_xlfn.MAXIFS(K2:K235,K2:K235,"&gt;1")</f>
+        <f>_xlfn.MAXIFS(K2:K235,K2:K235,"&gt;18000")</f>
         <v>23999</v>
       </c>
       <c r="L236">
-        <f>_xlfn.MAXIFS(L2:L234,L2:L234,"&gt;1")</f>
+        <f>_xlfn.MAXIFS(L2:L234,L2:L234,"&gt;18000")</f>
         <v>23999</v>
       </c>
       <c r="M236">
-        <f>_xlfn.MAXIFS(M2:M234,M2:M234,"&gt;1")</f>
+        <f>_xlfn.MAXIFS(M2:M234,M2:M234,"&gt;18000")</f>
         <v>23999</v>
       </c>
       <c r="N236">
-        <f>_xlfn.MAXIFS(N2:N234,N2:N234,"&gt;1")</f>
+        <f>_xlfn.MAXIFS(N2:N234,N2:N234,"&gt;18000")</f>
         <v>23999</v>
       </c>
     </row>
@@ -11591,20 +11591,20 @@
         <v>1</v>
       </c>
       <c r="K237">
-        <f>_xlfn.MINIFS(K2:K234,K2:K234,"&gt;1")</f>
-        <v>153</v>
+        <f>_xlfn.MINIFS(K2:K234,K2:K234,"&gt;18000")</f>
+        <v>18385</v>
       </c>
       <c r="L237">
-        <f>_xlfn.MINIFS(L2:L234,L2:L234,"&gt;1")</f>
-        <v>4351</v>
+        <f>_xlfn.MINIFS(L2:L234,L2:L234,"&gt;18000")</f>
+        <v>18009</v>
       </c>
       <c r="M237">
-        <f>_xlfn.MINIFS(M2:M234,M2:M234,"&gt;1")</f>
-        <v>4742</v>
+        <f>_xlfn.MINIFS(M2:M234,M2:M234,"&gt;18000")</f>
+        <v>18434</v>
       </c>
       <c r="N237">
-        <f>_xlfn.MINIFS(N2:N234,N2:N234,"&gt;1")</f>
-        <v>11505</v>
+        <f>_xlfn.MINIFS(N2:N234,N2:N234,"&gt;18000")</f>
+        <v>19013</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -13141,7 +13141,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13277,16 +13277,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22304.62393162393</v>
+        <v>23775.072164948455</v>
       </c>
       <c r="C12">
-        <v>23304.820512820512</v>
+        <v>23811.223214285714</v>
       </c>
       <c r="D12">
-        <v>23314.51282051282</v>
+        <v>23865.639639639641</v>
       </c>
       <c r="E12">
-        <v>23849.598290598289</v>
+        <v>23956.017241379312</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -13311,16 +13311,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>153</v>
+        <v>18385</v>
       </c>
       <c r="C14">
-        <v>4351</v>
+        <v>18009</v>
       </c>
       <c r="D14">
-        <v>4742</v>
+        <v>18434</v>
       </c>
       <c r="E14">
-        <v>11505</v>
+        <v>19013</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">

--- a/IR sensor outputs.xlsx
+++ b/IR sensor outputs.xlsx
@@ -3482,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932958A4-F64A-4305-9564-56C90EC136CD}">
   <dimension ref="A1:T175"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="L116" sqref="L116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9929,8 +9929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03C2029-D67C-49CA-8646-65AC2878C8D2}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IR sensor outputs.xlsx
+++ b/IR sensor outputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/98cbedaba88e321f/Metropolia/Devices/Workspaces/Workspace 1/Zumo4/Zumo01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="AC88CF48CAA6AD3F7806389E7F064D31EF454B06" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{D8F50A2D-316F-4A5D-A634-792F27E48EA8}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="AC88CF48CAA6AD3F7806389E7F064D31EF454B06" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{900F7D7F-4D97-43B9-8720-C2C536C394B6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" activeTab="1" xr2:uid="{197858B8-A540-465C-ABDC-2FF25818563B}"/>
   </bookViews>
@@ -3482,8 +3482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932958A4-F64A-4305-9564-56C90EC136CD}">
   <dimension ref="A1:T175"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="L116" sqref="L116"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9930,7 +9930,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
